--- a/datasets/D1_riskprem_expost_2015.xlsx
+++ b/datasets/D1_riskprem_expost_2015.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1269"/>
+  <dimension ref="A1:B1268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6221,287 +6221,287 @@
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>43036</v>
+        <v>43039</v>
       </c>
       <c r="B723" t="n">
-        <v>-1.21505376344086</v>
+        <v>0.001082251082251059</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>43039</v>
+        <v>43040</v>
       </c>
       <c r="B724" t="n">
-        <v>0.001082251082251059</v>
+        <v>0.0129449838187703</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>43040</v>
+        <v>43041</v>
       </c>
       <c r="B725" t="n">
-        <v>0.0129449838187703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>43041</v>
+        <v>43042</v>
       </c>
       <c r="B726" t="n">
-        <v>0</v>
+        <v>0.001189532117367214</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>43042</v>
+        <v>43043</v>
       </c>
       <c r="B727" t="n">
-        <v>0.001189532117367214</v>
+        <v>0.01361135244714737</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>43043</v>
+        <v>43046</v>
       </c>
       <c r="B728" t="n">
-        <v>0.01361135244714737</v>
+        <v>-0.01979444232965358</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>43046</v>
+        <v>43047</v>
       </c>
       <c r="B729" t="n">
-        <v>-0.01979444232965358</v>
+        <v>-0.04089219330855019</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>43047</v>
+        <v>43048</v>
       </c>
       <c r="B730" t="n">
-        <v>-0.04089219330855019</v>
+        <v>0.009120900446341914</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>43048</v>
+        <v>43049</v>
       </c>
       <c r="B731" t="n">
-        <v>0.009120900446341914</v>
+        <v>-0.0006345177664974484</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>43049</v>
+        <v>43050</v>
       </c>
       <c r="B732" t="n">
-        <v>-0.0006345177664974484</v>
+        <v>0.0327022375215147</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>43050</v>
+        <v>43053</v>
       </c>
       <c r="B733" t="n">
-        <v>0.0327022375215147</v>
+        <v>0.08262817322050772</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="B734" t="n">
-        <v>0.08262817322050772</v>
+        <v>0.01824648214009576</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="B735" t="n">
-        <v>0.01824648214009576</v>
+        <v>0.06729758149316516</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="B736" t="n">
-        <v>0.06729758149316516</v>
+        <v>0.106784798321287</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>43056</v>
+        <v>43057</v>
       </c>
       <c r="B737" t="n">
-        <v>0.106784798321287</v>
+        <v>0.01214574898785417</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>43057</v>
+        <v>43060</v>
       </c>
       <c r="B738" t="n">
-        <v>0.01214574898785417</v>
+        <v>-0.006085192697768705</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.006085192697768705</v>
+        <v>0.004098360655737786</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>43061</v>
+        <v>43062</v>
       </c>
       <c r="B740" t="n">
-        <v>0.004098360655737786</v>
+        <v>0.04880136986301373</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>43062</v>
+        <v>43063</v>
       </c>
       <c r="B741" t="n">
-        <v>0.04880136986301373</v>
+        <v>-0.03463608705827281</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>43063</v>
+        <v>43064</v>
       </c>
       <c r="B742" t="n">
-        <v>-0.03463608705827281</v>
+        <v>-0.02573070197351989</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>43064</v>
+        <v>43067</v>
       </c>
       <c r="B743" t="n">
-        <v>-0.02573070197351989</v>
+        <v>0.02752538749331911</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>43067</v>
+        <v>43068</v>
       </c>
       <c r="B744" t="n">
-        <v>0.02752538749331911</v>
+        <v>-0.05244755244755245</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>43068</v>
+        <v>43069</v>
       </c>
       <c r="B745" t="n">
-        <v>-0.05244755244755245</v>
+        <v>0.06556163978096799</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>43069</v>
+        <v>43070</v>
       </c>
       <c r="B746" t="n">
-        <v>0.06556163978096799</v>
+        <v>0.05685728330329344</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>43070</v>
+        <v>43071</v>
       </c>
       <c r="B747" t="n">
-        <v>0.05685728330329344</v>
+        <v>0.0553762105785944</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>43071</v>
+        <v>43074</v>
       </c>
       <c r="B748" t="n">
-        <v>0.0553762105785944</v>
+        <v>-0.01837928153717618</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>43074</v>
+        <v>43075</v>
       </c>
       <c r="B749" t="n">
-        <v>-0.01837928153717618</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>43075</v>
+        <v>43076</v>
       </c>
       <c r="B750" t="n">
-        <v>-0.032</v>
+        <v>-0.150556531927358</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>43076</v>
+        <v>43077</v>
       </c>
       <c r="B751" t="n">
-        <v>-0.150556531927358</v>
+        <v>0.1170906718851924</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>43077</v>
+        <v>43078</v>
       </c>
       <c r="B752" t="n">
-        <v>0.1170906718851924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>43078</v>
+        <v>43081</v>
       </c>
       <c r="B753" t="n">
-        <v>0</v>
+        <v>0.04803493449781655</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>43081</v>
+        <v>43082</v>
       </c>
       <c r="B754" t="n">
-        <v>0.04803493449781655</v>
+        <v>0.1253720238095239</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>43082</v>
+        <v>43083</v>
       </c>
       <c r="B755" t="n">
-        <v>0.1253720238095239</v>
+        <v>0.007739438890680374</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>43083</v>
+        <v>43084</v>
       </c>
       <c r="B756" t="n">
-        <v>0.007739438890680374</v>
+        <v>0.08625162127107656</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>43084</v>
+        <v>43085</v>
       </c>
       <c r="B757" t="n">
-        <v>0.08625162127107656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>43085</v>
+        <v>43088</v>
       </c>
       <c r="B758" t="n">
         <v>0</v>
@@ -6509,7 +6509,7 @@
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>43088</v>
+        <v>43089</v>
       </c>
       <c r="B759" t="n">
         <v>0</v>
@@ -6517,159 +6517,159 @@
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>43089</v>
+        <v>43090</v>
       </c>
       <c r="B760" t="n">
-        <v>0</v>
+        <v>0.0571561338289963</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>43090</v>
+        <v>43091</v>
       </c>
       <c r="B761" t="n">
-        <v>0.0571561338289963</v>
+        <v>0.02810838186882754</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>43091</v>
+        <v>43092</v>
       </c>
       <c r="B762" t="n">
-        <v>0.02810838186882754</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>43092</v>
+        <v>43097</v>
       </c>
       <c r="B763" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.09264389042782388</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="B764" t="n">
-        <v>0.09264389042782388</v>
+        <v>0.1619549592716818</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>43098</v>
+        <v>43099</v>
       </c>
       <c r="B765" t="n">
-        <v>0.1619549592716818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>43099</v>
+        <v>43103</v>
       </c>
       <c r="B766" t="n">
-        <v>0</v>
+        <v>0.309921962095875</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="B767" t="n">
-        <v>0.309921962095875</v>
+        <v>-0.1962491627595445</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="B768" t="n">
-        <v>-0.1962491627595445</v>
+        <v>-0.006664550936210754</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>43105</v>
+        <v>43106</v>
       </c>
       <c r="B769" t="n">
-        <v>-0.006664550936210754</v>
+        <v>-0.04098360655737705</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>43106</v>
+        <v>43109</v>
       </c>
       <c r="B770" t="n">
-        <v>-0.04098360655737705</v>
+        <v>0.0905485789821546</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="B771" t="n">
-        <v>0.0905485789821546</v>
+        <v>0.04282603435760956</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>43110</v>
+        <v>43111</v>
       </c>
       <c r="B772" t="n">
-        <v>0.04282603435760956</v>
+        <v>0.005656819610308048</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>43111</v>
+        <v>43112</v>
       </c>
       <c r="B773" t="n">
-        <v>0.005656819610308048</v>
+        <v>0.02913085004775546</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>43112</v>
+        <v>43113</v>
       </c>
       <c r="B774" t="n">
-        <v>0.02913085004775546</v>
+        <v>0.05091770278271163</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>43113</v>
+        <v>43116</v>
       </c>
       <c r="B775" t="n">
-        <v>0.05091770278271163</v>
+        <v>-0.0540044085231447</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="B776" t="n">
-        <v>-0.0540044085231447</v>
+        <v>-0.01859504132231402</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="B777" t="n">
-        <v>-0.01859504132231402</v>
+        <v>0.02242744063324537</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>43118</v>
+        <v>43119</v>
       </c>
       <c r="B778" t="n">
-        <v>0.02242744063324537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>43119</v>
+        <v>43120</v>
       </c>
       <c r="B779" t="n">
         <v>0</v>
@@ -6677,3921 +6677,3913 @@
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>43120</v>
+        <v>43123</v>
       </c>
       <c r="B780" t="n">
-        <v>0</v>
+        <v>-0.02092274678111591</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>43123</v>
+        <v>43124</v>
       </c>
       <c r="B781" t="n">
-        <v>-0.02092274678111591</v>
+        <v>0.005025125628140745</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>43124</v>
+        <v>43125</v>
       </c>
       <c r="B782" t="n">
-        <v>0.005025125628140745</v>
+        <v>0.03427358204428276</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="B783" t="n">
-        <v>0.03427358204428276</v>
+        <v>-0.05869324473975634</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>43126</v>
+        <v>43127</v>
       </c>
       <c r="B784" t="n">
-        <v>-0.05869324473975634</v>
+        <v>-0.04754647973178915</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>43127</v>
+        <v>43130</v>
       </c>
       <c r="B785" t="n">
-        <v>-0.04754647973178915</v>
+        <v>-0.05054454063110869</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>43130</v>
+        <v>43131</v>
       </c>
       <c r="B786" t="n">
-        <v>-0.05054454063110869</v>
+        <v>0.07802874743326493</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>43131</v>
+        <v>43132</v>
       </c>
       <c r="B787" t="n">
-        <v>0.07802874743326493</v>
+        <v>-0.02884049440847548</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="B788" t="n">
-        <v>-0.02884049440847548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>43133</v>
+        <v>43134</v>
       </c>
       <c r="B789" t="n">
-        <v>0</v>
+        <v>-0.03798411122144988</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>43134</v>
+        <v>43137</v>
       </c>
       <c r="B790" t="n">
-        <v>-0.03798411122144988</v>
+        <v>0.0717317487266554</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="B791" t="n">
-        <v>0.0717317487266554</v>
+        <v>0.03218293457548176</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>43138</v>
+        <v>43139</v>
       </c>
       <c r="B792" t="n">
-        <v>0.03218293457548176</v>
+        <v>-0.02727637384677095</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="B793" t="n">
-        <v>-0.02727637384677095</v>
+        <v>0.01102941176470595</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>43140</v>
+        <v>43141</v>
       </c>
       <c r="B794" t="n">
-        <v>0.01102941176470595</v>
+        <v>-0.02869476891823267</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>43141</v>
+        <v>43144</v>
       </c>
       <c r="B795" t="n">
-        <v>-0.02869476891823267</v>
+        <v>0.02272727272727269</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>43144</v>
+        <v>43145</v>
       </c>
       <c r="B796" t="n">
-        <v>0.02272727272727269</v>
+        <v>-0.009031610637230292</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>43145</v>
+        <v>43146</v>
       </c>
       <c r="B797" t="n">
-        <v>-0.009031610637230292</v>
+        <v>-0.00468384074941442</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>43146</v>
+        <v>43147</v>
       </c>
       <c r="B798" t="n">
-        <v>-0.00468384074941442</v>
+        <v>-0.05298341173557813</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>43147</v>
+        <v>43148</v>
       </c>
       <c r="B799" t="n">
-        <v>-0.05298341173557813</v>
+        <v>-0.01081346768247721</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>43148</v>
+        <v>43151</v>
       </c>
       <c r="B800" t="n">
-        <v>-0.01081346768247721</v>
+        <v>-0.03669724770642196</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>43151</v>
+        <v>43152</v>
       </c>
       <c r="B801" t="n">
-        <v>-0.03669724770642196</v>
+        <v>0.04385026737967909</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>43152</v>
+        <v>43153</v>
       </c>
       <c r="B802" t="n">
-        <v>0.04385026737967909</v>
+        <v>-0.04997891185153953</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>43153</v>
+        <v>43154</v>
       </c>
       <c r="B803" t="n">
-        <v>-0.04997891185153953</v>
+        <v>-0.03885249604698455</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>43154</v>
+        <v>43155</v>
       </c>
       <c r="B804" t="n">
-        <v>-0.03885249604698455</v>
+        <v>-0.02214793146677815</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>43155</v>
+        <v>43158</v>
       </c>
       <c r="B805" t="n">
-        <v>-0.02214793146677815</v>
+        <v>0.06150997737091138</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>43158</v>
+        <v>43159</v>
       </c>
       <c r="B806" t="n">
-        <v>0.06150997737091138</v>
+        <v>0.002652519893899053</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>43159</v>
+        <v>43160</v>
       </c>
       <c r="B807" t="n">
-        <v>0.002652519893899053</v>
+        <v>0.1075949367088608</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>43160</v>
+        <v>43161</v>
       </c>
       <c r="B808" t="n">
-        <v>0.1075949367088608</v>
+        <v>0.02177140029688262</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>43161</v>
+        <v>43162</v>
       </c>
       <c r="B809" t="n">
-        <v>0.02177140029688262</v>
+        <v>0.0002899391127862572</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>43162</v>
+        <v>43165</v>
       </c>
       <c r="B810" t="n">
-        <v>0.0002899391127862572</v>
+        <v>0.01262019230769222</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>43165</v>
+        <v>43166</v>
       </c>
       <c r="B811" t="n">
-        <v>0.01262019230769222</v>
+        <v>-0.002687060768912826</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>43166</v>
+        <v>43167</v>
       </c>
       <c r="B812" t="n">
-        <v>-0.002687060768912826</v>
+        <v>-0.0740740740740741</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="B813" t="n">
-        <v>-0.0740740740740741</v>
+        <v>0.01132686084142399</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
-        <v>43168</v>
+        <v>43169</v>
       </c>
       <c r="B814" t="n">
-        <v>0.01132686084142399</v>
+        <v>-0.05782508630609891</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
-        <v>43169</v>
+        <v>43172</v>
       </c>
       <c r="B815" t="n">
-        <v>-0.05782508630609891</v>
+        <v>-0.06547917711991971</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>43172</v>
+        <v>43173</v>
       </c>
       <c r="B816" t="n">
-        <v>-0.06547917711991971</v>
+        <v>0.004702864471996556</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="B817" t="n">
-        <v>0.004702864471996556</v>
+        <v>0.1469752334551361</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
-        <v>43174</v>
+        <v>43175</v>
       </c>
       <c r="B818" t="n">
-        <v>0.1469752334551361</v>
+        <v>-0.1132332878581173</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
-        <v>43175</v>
+        <v>43176</v>
       </c>
       <c r="B819" t="n">
-        <v>-0.1132332878581173</v>
+        <v>0.005025125628140708</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
-        <v>43176</v>
+        <v>43179</v>
       </c>
       <c r="B820" t="n">
-        <v>0.005025125628140708</v>
+        <v>-0.02189101071262221</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
-        <v>43179</v>
+        <v>43180</v>
       </c>
       <c r="B821" t="n">
-        <v>-0.02189101071262221</v>
+        <v>-0.01794327609492571</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="B822" t="n">
-        <v>-0.01794327609492571</v>
+        <v>-0.0502408809359946</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
-        <v>43181</v>
+        <v>43182</v>
       </c>
       <c r="B823" t="n">
-        <v>-0.0502408809359946</v>
+        <v>0.002079788239742852</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
-        <v>43182</v>
+        <v>43183</v>
       </c>
       <c r="B824" t="n">
-        <v>0.002079788239742852</v>
+        <v>0.008454106280193271</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
-        <v>43183</v>
+        <v>43186</v>
       </c>
       <c r="B825" t="n">
-        <v>0.008454106280193271</v>
+        <v>0.05946305746616374</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
-        <v>43186</v>
+        <v>43187</v>
       </c>
       <c r="B826" t="n">
-        <v>0.05946305746616374</v>
+        <v>-0.0130767332839872</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
-        <v>43187</v>
+        <v>43188</v>
       </c>
       <c r="B827" t="n">
-        <v>-0.0130767332839872</v>
+        <v>-0.01286426883696513</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
-        <v>43188</v>
+        <v>43189</v>
       </c>
       <c r="B828" t="n">
-        <v>-0.01286426883696513</v>
+        <v>0.01395032323919701</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
-        <v>43189</v>
+        <v>43194</v>
       </c>
       <c r="B829" t="n">
-        <v>0.01395032323919701</v>
+        <v>0.01149739939775532</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
-        <v>43194</v>
+        <v>43195</v>
       </c>
       <c r="B830" t="n">
-        <v>0.01149739939775532</v>
+        <v>-0.1108722358722359</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
-        <v>43195</v>
+        <v>43196</v>
       </c>
       <c r="B831" t="n">
-        <v>-0.1108722358722359</v>
+        <v>0.02414772727272711</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
-        <v>43196</v>
+        <v>43197</v>
       </c>
       <c r="B832" t="n">
-        <v>0.02414772727272711</v>
+        <v>-0.05946601941747575</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
-        <v>43197</v>
+        <v>43200</v>
       </c>
       <c r="B833" t="n">
-        <v>-0.05946601941747575</v>
+        <v>-0.03552595059672498</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="B834" t="n">
-        <v>-0.03552595059672498</v>
+        <v>0.05488578680203047</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
-        <v>43201</v>
+        <v>43202</v>
       </c>
       <c r="B835" t="n">
-        <v>0.05488578680203047</v>
+        <v>-0.05831099195710451</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
-        <v>43202</v>
+        <v>43203</v>
       </c>
       <c r="B836" t="n">
-        <v>-0.05831099195710451</v>
+        <v>-0.0539839086426161</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="B837" t="n">
-        <v>-0.0539839086426161</v>
+        <v>-0.07932011331444752</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
-        <v>43204</v>
+        <v>43207</v>
       </c>
       <c r="B838" t="n">
-        <v>-0.07932011331444752</v>
+        <v>0.01598173515981742</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
-        <v>43207</v>
+        <v>43208</v>
       </c>
       <c r="B839" t="n">
-        <v>0.01598173515981742</v>
+        <v>-0.003896736483195414</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
-        <v>43208</v>
+        <v>43209</v>
       </c>
       <c r="B840" t="n">
-        <v>-0.003896736483195414</v>
+        <v>-0.02108433734939768</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="B841" t="n">
-        <v>-0.02108433734939768</v>
+        <v>0.003106393994304878</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="B842" t="n">
-        <v>0.003106393994304878</v>
+        <v>0.03666666666666672</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
-        <v>43211</v>
+        <v>43214</v>
       </c>
       <c r="B843" t="n">
-        <v>0.03666666666666672</v>
+        <v>-0.002039627039627048</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
-        <v>43214</v>
+        <v>43215</v>
       </c>
       <c r="B844" t="n">
-        <v>-0.002039627039627048</v>
+        <v>0.09014290949065595</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
-        <v>43215</v>
+        <v>43216</v>
       </c>
       <c r="B845" t="n">
-        <v>0.09014290949065595</v>
+        <v>0.03448275862068968</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
-        <v>43216</v>
+        <v>43217</v>
       </c>
       <c r="B846" t="n">
-        <v>0.03448275862068968</v>
+        <v>-0.04137235116044401</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
-        <v>43217</v>
+        <v>43218</v>
       </c>
       <c r="B847" t="n">
-        <v>-0.04137235116044401</v>
+        <v>0.01065658301821928</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
-        <v>43218</v>
+        <v>43223</v>
       </c>
       <c r="B848" t="n">
-        <v>0.01065658301821928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
-        <v>43223</v>
+        <v>43224</v>
       </c>
       <c r="B849" t="n">
-        <v>0</v>
+        <v>-0.02493211552703032</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
-        <v>43224</v>
+        <v>43225</v>
       </c>
       <c r="B850" t="n">
-        <v>-0.02493211552703032</v>
+        <v>-0.02675114396339323</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
-        <v>43225</v>
+        <v>43228</v>
       </c>
       <c r="B851" t="n">
-        <v>-0.02675114396339323</v>
+        <v>0.1285038223516564</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
-        <v>43228</v>
+        <v>43229</v>
       </c>
       <c r="B852" t="n">
-        <v>0.1285038223516564</v>
+        <v>-0.02375750955761872</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
-        <v>43229</v>
+        <v>43230</v>
       </c>
       <c r="B853" t="n">
-        <v>-0.02375750955761872</v>
+        <v>-0.1478398731668649</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="B854" t="n">
-        <v>-0.1478398731668649</v>
+        <v>-0.09952606635071096</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
-        <v>43231</v>
+        <v>43232</v>
       </c>
       <c r="B855" t="n">
-        <v>-0.09952606635071096</v>
+        <v>-0.01538461538461539</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
-        <v>43232</v>
+        <v>43235</v>
       </c>
       <c r="B856" t="n">
-        <v>-0.01538461538461539</v>
+        <v>-0.05727079896299787</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
-        <v>43235</v>
+        <v>43236</v>
       </c>
       <c r="B857" t="n">
-        <v>-0.05727079896299787</v>
+        <v>0.009615384615384581</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
-        <v>43236</v>
+        <v>43237</v>
       </c>
       <c r="B858" t="n">
-        <v>0.009615384615384581</v>
+        <v>0.01017236507487989</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
-        <v>43237</v>
+        <v>43238</v>
       </c>
       <c r="B859" t="n">
-        <v>0.01017236507487989</v>
+        <v>0.03426233699821026</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
-        <v>43238</v>
+        <v>43239</v>
       </c>
       <c r="B860" t="n">
-        <v>0.03426233699821026</v>
+        <v>-0.03190319031903181</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
-        <v>43239</v>
+        <v>43242</v>
       </c>
       <c r="B861" t="n">
-        <v>-0.03190319031903181</v>
+        <v>-0.09377923292797002</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
-        <v>43242</v>
+        <v>43243</v>
       </c>
       <c r="B862" t="n">
-        <v>-0.09377923292797002</v>
+        <v>-0.02551381998582562</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
-        <v>43243</v>
+        <v>43244</v>
       </c>
       <c r="B863" t="n">
-        <v>-0.02551381998582562</v>
+        <v>-0.01155327342747119</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
-        <v>43244</v>
+        <v>43245</v>
       </c>
       <c r="B864" t="n">
-        <v>-0.01155327342747119</v>
+        <v>-0.02130822596630326</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
-        <v>43245</v>
+        <v>43246</v>
       </c>
       <c r="B865" t="n">
-        <v>-0.02130822596630326</v>
+        <v>-0.0560949298813376</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
-        <v>43246</v>
+        <v>43249</v>
       </c>
       <c r="B866" t="n">
-        <v>-0.0560949298813376</v>
+        <v>0.01957585644371949</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
-        <v>43249</v>
+        <v>43250</v>
       </c>
       <c r="B867" t="n">
-        <v>0.01957585644371949</v>
+        <v>0.0122107969151671</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
-        <v>43250</v>
+        <v>43251</v>
       </c>
       <c r="B868" t="n">
-        <v>0.0122107969151671</v>
+        <v>0.005917159763313609</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
-        <v>43251</v>
+        <v>43252</v>
       </c>
       <c r="B869" t="n">
-        <v>0.005917159763313609</v>
+        <v>-0.04970760233918124</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
-        <v>43252</v>
+        <v>43253</v>
       </c>
       <c r="B870" t="n">
-        <v>-0.04970760233918124</v>
+        <v>0.04052710094480365</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
-        <v>43253</v>
+        <v>43256</v>
       </c>
       <c r="B871" t="n">
-        <v>0.04052710094480365</v>
+        <v>-0.02960203881591841</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
-        <v>43256</v>
+        <v>43257</v>
       </c>
       <c r="B872" t="n">
-        <v>-0.02960203881591841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
-        <v>43257</v>
+        <v>43258</v>
       </c>
       <c r="B873" t="n">
-        <v>0</v>
+        <v>0.04616004837734326</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="B874" t="n">
-        <v>0.04616004837734326</v>
+        <v>0.04251012145748991</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
-        <v>43259</v>
+        <v>43260</v>
       </c>
       <c r="B875" t="n">
-        <v>0.04251012145748991</v>
+        <v>-0.01342123852130917</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
-        <v>43260</v>
+        <v>43263</v>
       </c>
       <c r="B876" t="n">
-        <v>-0.01342123852130917</v>
+        <v>-0.009652121455861591</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="B877" t="n">
-        <v>-0.009652121455861591</v>
+        <v>-0.003115264797507759</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
-        <v>43264</v>
+        <v>43265</v>
       </c>
       <c r="B878" t="n">
-        <v>-0.003115264797507759</v>
+        <v>0.01947308132875147</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
-        <v>43265</v>
+        <v>43266</v>
       </c>
       <c r="B879" t="n">
-        <v>0.01947308132875147</v>
+        <v>0.005055611729019211</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="B880" t="n">
-        <v>0.005055611729019211</v>
+        <v>-0.01143994031335491</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
-        <v>43267</v>
+        <v>43270</v>
       </c>
       <c r="B881" t="n">
-        <v>-0.01143994031335491</v>
+        <v>-0.00150472914875323</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
-        <v>43270</v>
+        <v>43271</v>
       </c>
       <c r="B882" t="n">
-        <v>-0.00150472914875323</v>
+        <v>-0.02243589743589738</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
-        <v>43271</v>
+        <v>43272</v>
       </c>
       <c r="B883" t="n">
-        <v>-0.02243589743589738</v>
+        <v>0.09126984126984132</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
-        <v>43272</v>
+        <v>43273</v>
       </c>
       <c r="B884" t="n">
-        <v>0.09126984126984132</v>
+        <v>0.1456825856246985</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
-        <v>43273</v>
+        <v>43274</v>
       </c>
       <c r="B885" t="n">
-        <v>0.1456825856246985</v>
+        <v>-0.1419003767266639</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
-        <v>43274</v>
+        <v>43277</v>
       </c>
       <c r="B886" t="n">
-        <v>-0.1419003767266639</v>
+        <v>-0.005480008118530609</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
-        <v>43277</v>
+        <v>43278</v>
       </c>
       <c r="B887" t="n">
-        <v>-0.005480008118530609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="B888" t="n">
-        <v>0</v>
+        <v>0.01358877255513476</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="B889" t="n">
-        <v>0.01358877255513476</v>
+        <v>-0.0004512635379062077</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="B890" t="n">
-        <v>-0.0004512635379062077</v>
+        <v>-0.04697491392031473</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
-        <v>43281</v>
+        <v>43284</v>
       </c>
       <c r="B891" t="n">
-        <v>-0.04697491392031473</v>
+        <v>0.01286173633440516</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
-        <v>43284</v>
+        <v>43285</v>
       </c>
       <c r="B892" t="n">
-        <v>0.01286173633440516</v>
+        <v>0.01484683330201088</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="B893" t="n">
-        <v>0.01484683330201088</v>
+        <v>-0.03011001737116391</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
-        <v>43286</v>
+        <v>43287</v>
       </c>
       <c r="B894" t="n">
-        <v>-0.03011001737116391</v>
+        <v>-0.04099560761347</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
-        <v>43287</v>
+        <v>43288</v>
       </c>
       <c r="B895" t="n">
-        <v>-0.04099560761347</v>
+        <v>0.01215805471124616</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
-        <v>43288</v>
+        <v>43291</v>
       </c>
       <c r="B896" t="n">
-        <v>0.01215805471124616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="B897" t="n">
-        <v>0</v>
+        <v>0.02285714285714291</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
-        <v>43292</v>
+        <v>43293</v>
       </c>
       <c r="B898" t="n">
-        <v>0.02285714285714291</v>
+        <v>0.003564059275933178</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="B899" t="n">
-        <v>0.003564059275933178</v>
+        <v>0.008262836907338219</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
-        <v>43294</v>
+        <v>43295</v>
       </c>
       <c r="B900" t="n">
-        <v>0.008262836907338219</v>
+        <v>-0.0244914902449149</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
-        <v>43295</v>
+        <v>43298</v>
       </c>
       <c r="B901" t="n">
-        <v>-0.0244914902449149</v>
+        <v>0.03663214422708087</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
-        <v>43298</v>
+        <v>43299</v>
       </c>
       <c r="B902" t="n">
-        <v>0.03663214422708087</v>
+        <v>0.01507537688442211</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
-        <v>43299</v>
+        <v>43300</v>
       </c>
       <c r="B903" t="n">
-        <v>0.01507537688442211</v>
+        <v>0.01161665053242984</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="B904" t="n">
-        <v>0.01161665053242984</v>
+        <v>-0.0007471049682480229</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
-        <v>43301</v>
+        <v>43302</v>
       </c>
       <c r="B905" t="n">
-        <v>-0.0007471049682480229</v>
+        <v>-0.01335459437911106</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
-        <v>43302</v>
+        <v>43305</v>
       </c>
       <c r="B906" t="n">
-        <v>-0.01335459437911106</v>
+        <v>0.01518361581920903</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
-        <v>43305</v>
+        <v>43306</v>
       </c>
       <c r="B907" t="n">
-        <v>0.01518361581920903</v>
+        <v>-0.0001712035610340355</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="B908" t="n">
-        <v>-0.0001712035610340355</v>
+        <v>0.006900308698020747</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
-        <v>43307</v>
+        <v>43308</v>
       </c>
       <c r="B909" t="n">
-        <v>0.006900308698020747</v>
+        <v>-0.04437814655976138</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="B910" t="n">
-        <v>-0.04437814655976138</v>
+        <v>-0.01400862068965514</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
-        <v>43309</v>
+        <v>43312</v>
       </c>
       <c r="B911" t="n">
-        <v>-0.01400862068965514</v>
+        <v>0.008343688975679015</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="B912" t="n">
-        <v>0.008343688975679015</v>
+        <v>0.02095170454545454</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="B913" t="n">
-        <v>0.02095170454545454</v>
+        <v>-0.01227303295225281</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
-        <v>43314</v>
+        <v>43315</v>
       </c>
       <c r="B914" t="n">
-        <v>-0.01227303295225281</v>
+        <v>-0.003507653061224472</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
-        <v>43315</v>
+        <v>43316</v>
       </c>
       <c r="B915" t="n">
-        <v>-0.003507653061224472</v>
+        <v>0.03971048513302037</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
-        <v>43316</v>
+        <v>43319</v>
       </c>
       <c r="B916" t="n">
-        <v>0.03971048513302037</v>
+        <v>-0.01978973407544849</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="B917" t="n">
-        <v>-0.01978973407544849</v>
+        <v>0.01586170023168777</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
-        <v>43320</v>
+        <v>43321</v>
       </c>
       <c r="B918" t="n">
-        <v>0.01586170023168777</v>
+        <v>0.03523428986560112</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="B919" t="n">
-        <v>0.03523428986560112</v>
+        <v>-0.07654650645304846</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
-        <v>43322</v>
+        <v>43323</v>
       </c>
       <c r="B920" t="n">
-        <v>-0.07654650645304846</v>
+        <v>-0.04537286612758318</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
-        <v>43323</v>
+        <v>43326</v>
       </c>
       <c r="B921" t="n">
-        <v>-0.04537286612758318</v>
+        <v>-0.02833272793316386</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="B922" t="n">
-        <v>-0.02833272793316386</v>
+        <v>0.02432179607109443</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="B923" t="n">
-        <v>0.02432179607109443</v>
+        <v>0.01623840114204146</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="2" t="n">
-        <v>43328</v>
+        <v>43329</v>
       </c>
       <c r="B924" t="n">
-        <v>0.01623840114204146</v>
+        <v>-0.007765314926660963</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="2" t="n">
-        <v>43329</v>
+        <v>43330</v>
       </c>
       <c r="B925" t="n">
-        <v>-0.007765314926660963</v>
+        <v>-0.03291798400595133</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
-        <v>43330</v>
+        <v>43333</v>
       </c>
       <c r="B926" t="n">
-        <v>-0.03291798400595133</v>
+        <v>0.01580135440180582</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
-        <v>43333</v>
+        <v>43334</v>
       </c>
       <c r="B927" t="n">
-        <v>0.01580135440180582</v>
+        <v>-0.02140672782874626</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
-        <v>43334</v>
+        <v>43335</v>
       </c>
       <c r="B928" t="n">
-        <v>-0.02140672782874626</v>
+        <v>0.01377798653514956</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
-        <v>43335</v>
+        <v>43336</v>
       </c>
       <c r="B929" t="n">
-        <v>0.01377798653514956</v>
+        <v>-0.005208333333333408</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="2" t="n">
-        <v>43336</v>
+        <v>43337</v>
       </c>
       <c r="B930" t="n">
-        <v>-0.005208333333333408</v>
+        <v>-0.01211556383970174</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
-        <v>43337</v>
+        <v>43340</v>
       </c>
       <c r="B931" t="n">
-        <v>-0.01211556383970174</v>
+        <v>-0.01619494475556218</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="2" t="n">
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="B932" t="n">
-        <v>-0.01619494475556218</v>
+        <v>0.01797359630984575</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="2" t="n">
-        <v>43341</v>
+        <v>43342</v>
       </c>
       <c r="B933" t="n">
-        <v>0.01797359630984575</v>
+        <v>-0.002613240418118442</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="2" t="n">
-        <v>43342</v>
+        <v>43343</v>
       </c>
       <c r="B934" t="n">
-        <v>-0.002613240418118442</v>
+        <v>0.004187344913151303</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
-        <v>43343</v>
+        <v>43344</v>
       </c>
       <c r="B935" t="n">
-        <v>0.004187344913151303</v>
+        <v>0.02493306559571623</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
-        <v>43344</v>
+        <v>43347</v>
       </c>
       <c r="B936" t="n">
-        <v>0.02493306559571623</v>
+        <v>0.002553319315109668</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
-        <v>43347</v>
+        <v>43348</v>
       </c>
       <c r="B937" t="n">
-        <v>0.002553319315109668</v>
+        <v>0.001650660264105634</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
-        <v>43348</v>
+        <v>43349</v>
       </c>
       <c r="B938" t="n">
-        <v>0.001650660264105634</v>
+        <v>-0.0004592071024032013</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="2" t="n">
-        <v>43349</v>
+        <v>43350</v>
       </c>
       <c r="B939" t="n">
-        <v>-0.0004592071024032013</v>
+        <v>0.005125740829729301</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="2" t="n">
-        <v>43350</v>
+        <v>43351</v>
       </c>
       <c r="B940" t="n">
-        <v>0.005125740829729301</v>
+        <v>-0.01217321891837955</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
-        <v>43351</v>
+        <v>43354</v>
       </c>
       <c r="B941" t="n">
-        <v>-0.01217321891837955</v>
+        <v>-0.01038062283737014</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="2" t="n">
-        <v>43354</v>
+        <v>43355</v>
       </c>
       <c r="B942" t="n">
-        <v>-0.01038062283737014</v>
+        <v>0.007369081216682328</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="2" t="n">
-        <v>43355</v>
+        <v>43356</v>
       </c>
       <c r="B943" t="n">
-        <v>0.007369081216682328</v>
+        <v>-0.0142617449664429</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="2" t="n">
-        <v>43356</v>
+        <v>43357</v>
       </c>
       <c r="B944" t="n">
-        <v>-0.0142617449664429</v>
+        <v>0.01403454657618749</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="2" t="n">
-        <v>43357</v>
+        <v>43358</v>
       </c>
       <c r="B945" t="n">
-        <v>0.01403454657618749</v>
+        <v>0.005985711527321921</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="2" t="n">
-        <v>43358</v>
+        <v>43361</v>
       </c>
       <c r="B946" t="n">
-        <v>0.005985711527321921</v>
+        <v>-0.05452035886818501</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="2" t="n">
-        <v>43361</v>
+        <v>43362</v>
       </c>
       <c r="B947" t="n">
-        <v>-0.05452035886818501</v>
+        <v>0.0503472222222222</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="2" t="n">
-        <v>43362</v>
+        <v>43363</v>
       </c>
       <c r="B948" t="n">
-        <v>0.0503472222222222</v>
+        <v>0.003272476748191487</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="2" t="n">
-        <v>43363</v>
+        <v>43364</v>
       </c>
       <c r="B949" t="n">
-        <v>0.003272476748191487</v>
+        <v>-0.08088235294117641</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
-        <v>43364</v>
+        <v>43365</v>
       </c>
       <c r="B950" t="n">
-        <v>-0.08088235294117641</v>
+        <v>0.2199921290830382</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
-        <v>43365</v>
+        <v>43368</v>
       </c>
       <c r="B951" t="n">
-        <v>0.2199921290830382</v>
+        <v>0.04427333974975924</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="B952" t="n">
-        <v>0.04427333974975924</v>
+        <v>0.1844424856765094</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="2" t="n">
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="B953" t="n">
-        <v>0.1844424856765094</v>
+        <v>-0.02115420300612359</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="2" t="n">
-        <v>43370</v>
+        <v>43371</v>
       </c>
       <c r="B954" t="n">
-        <v>-0.02115420300612359</v>
+        <v>0.01981912641908796</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="2" t="n">
-        <v>43371</v>
+        <v>43372</v>
       </c>
       <c r="B955" t="n">
-        <v>0.01981912641908796</v>
+        <v>0.1131426113142611</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
-        <v>43372</v>
+        <v>43375</v>
       </c>
       <c r="B956" t="n">
-        <v>0.1131426113142611</v>
+        <v>0.1454888993859234</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="2" t="n">
-        <v>43375</v>
+        <v>43376</v>
       </c>
       <c r="B957" t="n">
-        <v>0.1454888993859234</v>
+        <v>-0.04319300164024052</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="2" t="n">
-        <v>43376</v>
+        <v>43377</v>
       </c>
       <c r="B958" t="n">
-        <v>-0.04319300164024052</v>
+        <v>-0.01765157329240223</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="2" t="n">
-        <v>43377</v>
+        <v>43378</v>
       </c>
       <c r="B959" t="n">
-        <v>-0.01765157329240223</v>
+        <v>0.01990049751243786</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="2" t="n">
-        <v>43378</v>
+        <v>43379</v>
       </c>
       <c r="B960" t="n">
-        <v>0.01990049751243786</v>
+        <v>-0.05456743222241404</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
-        <v>43379</v>
+        <v>43382</v>
       </c>
       <c r="B961" t="n">
-        <v>-0.05456743222241404</v>
+        <v>-0.06385356993153547</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="2" t="n">
-        <v>43382</v>
+        <v>43383</v>
       </c>
       <c r="B962" t="n">
-        <v>-0.06385356993153547</v>
+        <v>0.009329258484799714</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="2" t="n">
-        <v>43383</v>
+        <v>43384</v>
       </c>
       <c r="B963" t="n">
-        <v>0.009329258484799714</v>
+        <v>-0.03403863845446185</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="2" t="n">
-        <v>43384</v>
+        <v>43385</v>
       </c>
       <c r="B964" t="n">
-        <v>-0.03403863845446185</v>
+        <v>0.03047384181786149</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="2" t="n">
-        <v>43385</v>
+        <v>43386</v>
       </c>
       <c r="B965" t="n">
-        <v>0.03047384181786149</v>
+        <v>0.04166666666666661</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="2" t="n">
-        <v>43386</v>
+        <v>43389</v>
       </c>
       <c r="B966" t="n">
-        <v>0.04166666666666661</v>
+        <v>0.01041666666666667</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="2" t="n">
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="B967" t="n">
-        <v>0.01041666666666667</v>
+        <v>0.004794810322944626</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="2" t="n">
-        <v>43390</v>
+        <v>43391</v>
       </c>
       <c r="B968" t="n">
-        <v>0.004794810322944626</v>
+        <v>-0.009658011399620005</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="2" t="n">
-        <v>43391</v>
+        <v>43392</v>
       </c>
       <c r="B969" t="n">
-        <v>-0.009658011399620005</v>
+        <v>-0.005324656115959169</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="2" t="n">
-        <v>43392</v>
+        <v>43393</v>
       </c>
       <c r="B970" t="n">
-        <v>-0.005324656115959169</v>
+        <v>-0.05692152239811388</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
-        <v>43393</v>
+        <v>43396</v>
       </c>
       <c r="B971" t="n">
-        <v>-0.05692152239811388</v>
+        <v>-0.1117850953206238</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="2" t="n">
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="B972" t="n">
-        <v>-0.1117850953206238</v>
+        <v>-0.153017724927081</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="2" t="n">
-        <v>43397</v>
+        <v>43398</v>
       </c>
       <c r="B973" t="n">
-        <v>-0.153017724927081</v>
+        <v>0.03610997127615917</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="2" t="n">
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="B974" t="n">
-        <v>0.03610997127615917</v>
+        <v>-0.01759781308730567</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="2" t="n">
-        <v>43399</v>
+        <v>43400</v>
       </c>
       <c r="B975" t="n">
-        <v>-0.01759781308730567</v>
+        <v>0.002701579384871209</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="2" t="n">
-        <v>43400</v>
+        <v>43403</v>
       </c>
       <c r="B976" t="n">
-        <v>0.002701579384871209</v>
+        <v>0.03950103950103945</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="2" t="n">
-        <v>43403</v>
+        <v>43404</v>
       </c>
       <c r="B977" t="n">
-        <v>0.03950103950103945</v>
+        <v>0.06335844040762072</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="2" t="n">
-        <v>43404</v>
+        <v>43405</v>
       </c>
       <c r="B978" t="n">
-        <v>0.06335844040762072</v>
+        <v>0.02275099144228769</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="2" t="n">
-        <v>43405</v>
+        <v>43406</v>
       </c>
       <c r="B979" t="n">
-        <v>0.02275099144228769</v>
+        <v>-0.1053496439656747</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
-        <v>43406</v>
+        <v>43407</v>
       </c>
       <c r="B980" t="n">
-        <v>-0.1053496439656747</v>
+        <v>0.07609531129900078</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="2" t="n">
-        <v>43407</v>
+        <v>43410</v>
       </c>
       <c r="B981" t="n">
-        <v>0.07609531129900078</v>
+        <v>-0.03415883859948762</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="2" t="n">
-        <v>43410</v>
+        <v>43411</v>
       </c>
       <c r="B982" t="n">
-        <v>-0.03415883859948762</v>
+        <v>0.008748437778968077</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="2" t="n">
-        <v>43411</v>
+        <v>43412</v>
       </c>
       <c r="B983" t="n">
-        <v>0.008748437778968077</v>
+        <v>0.00604421822808975</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="2" t="n">
-        <v>43412</v>
+        <v>43413</v>
       </c>
       <c r="B984" t="n">
-        <v>0.00604421822808975</v>
+        <v>-0.03797681062006382</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="2" t="n">
-        <v>43413</v>
+        <v>43414</v>
       </c>
       <c r="B985" t="n">
-        <v>-0.03797681062006382</v>
+        <v>-0.01323426979335965</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="2" t="n">
-        <v>43414</v>
+        <v>43417</v>
       </c>
       <c r="B986" t="n">
-        <v>-0.01323426979335965</v>
+        <v>-0.01619280738090754</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="2" t="n">
-        <v>43417</v>
+        <v>43418</v>
       </c>
       <c r="B987" t="n">
-        <v>-0.01619280738090754</v>
+        <v>0.03038629384192666</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="2" t="n">
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="B988" t="n">
-        <v>0.03038629384192666</v>
+        <v>0.012129804662886</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="2" t="n">
-        <v>43419</v>
+        <v>43420</v>
       </c>
       <c r="B989" t="n">
-        <v>0.012129804662886</v>
+        <v>-0.009001211701575265</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="2" t="n">
-        <v>43420</v>
+        <v>43421</v>
       </c>
       <c r="B990" t="n">
-        <v>-0.009001211701575265</v>
+        <v>0.03609209707529562</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="2" t="n">
-        <v>43421</v>
+        <v>43424</v>
       </c>
       <c r="B991" t="n">
-        <v>0.03609209707529562</v>
+        <v>-0.05144694533762055</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="2" t="n">
-        <v>43424</v>
+        <v>43425</v>
       </c>
       <c r="B992" t="n">
-        <v>-0.05144694533762055</v>
+        <v>0.06575144508670522</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
-        <v>43425</v>
+        <v>43426</v>
       </c>
       <c r="B993" t="n">
-        <v>0.06575144508670522</v>
+        <v>-0.04884318766066834</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="2" t="n">
-        <v>43426</v>
+        <v>43427</v>
       </c>
       <c r="B994" t="n">
-        <v>-0.04884318766066834</v>
+        <v>0.02390140669737336</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="2" t="n">
-        <v>43427</v>
+        <v>43428</v>
       </c>
       <c r="B995" t="n">
-        <v>0.02390140669737336</v>
+        <v>0.0008071025020177104</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="2" t="n">
-        <v>43428</v>
+        <v>43431</v>
       </c>
       <c r="B996" t="n">
-        <v>0.0008071025020177104</v>
+        <v>0.1058137994967553</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
-        <v>43431</v>
+        <v>43432</v>
       </c>
       <c r="B997" t="n">
-        <v>0.1058137994967553</v>
+        <v>0.0143423287412719</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
-        <v>43432</v>
+        <v>43433</v>
       </c>
       <c r="B998" t="n">
-        <v>0.0143423287412719</v>
+        <v>-0.0724206349206349</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
-        <v>43433</v>
+        <v>43434</v>
       </c>
       <c r="B999" t="n">
-        <v>-0.0724206349206349</v>
+        <v>-0.02608695652173913</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
-        <v>43434</v>
+        <v>43435</v>
       </c>
       <c r="B1000" t="n">
-        <v>-0.02608695652173913</v>
+        <v>0.04033290653008964</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
-        <v>43435</v>
+        <v>43438</v>
       </c>
       <c r="B1001" t="n">
-        <v>0.04033290653008964</v>
+        <v>0.06120434353405729</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
-        <v>43438</v>
+        <v>43439</v>
       </c>
       <c r="B1002" t="n">
-        <v>0.06120434353405729</v>
+        <v>0.03445363958790743</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" s="2" t="n">
-        <v>43439</v>
+        <v>43440</v>
       </c>
       <c r="B1003" t="n">
-        <v>0.03445363958790743</v>
+        <v>-0.045662100456621</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
-        <v>43440</v>
+        <v>43441</v>
       </c>
       <c r="B1004" t="n">
-        <v>-0.045662100456621</v>
+        <v>-0.04884922498825736</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
-        <v>43441</v>
+        <v>43442</v>
       </c>
       <c r="B1005" t="n">
-        <v>-0.04884922498825736</v>
+        <v>0.4743049705139007</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
-        <v>43442</v>
+        <v>43445</v>
       </c>
       <c r="B1006" t="n">
-        <v>0.4743049705139007</v>
+        <v>-0.03377280115586053</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
-        <v>43445</v>
+        <v>43446</v>
       </c>
       <c r="B1007" t="n">
-        <v>-0.03377280115586053</v>
+        <v>-0.005864683164068039</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
-        <v>43446</v>
+        <v>43447</v>
       </c>
       <c r="B1008" t="n">
-        <v>-0.005864683164068039</v>
+        <v>-0.02702294685990326</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
-        <v>43447</v>
+        <v>43448</v>
       </c>
       <c r="B1009" t="n">
-        <v>-0.02702294685990326</v>
+        <v>0.02234401349072518</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
-        <v>43448</v>
+        <v>43449</v>
       </c>
       <c r="B1010" t="n">
-        <v>0.02234401349072518</v>
+        <v>0.03841205660724138</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
-        <v>43449</v>
+        <v>43452</v>
       </c>
       <c r="B1011" t="n">
-        <v>0.03841205660724138</v>
+        <v>0.05971404541631618</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
-        <v>43452</v>
+        <v>43453</v>
       </c>
       <c r="B1012" t="n">
-        <v>0.05971404541631618</v>
+        <v>0.001063075832742776</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
-        <v>43453</v>
+        <v>43454</v>
       </c>
       <c r="B1013" t="n">
-        <v>0.001063075832742776</v>
+        <v>-0.01217145881107775</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
-        <v>43454</v>
+        <v>43455</v>
       </c>
       <c r="B1014" t="n">
-        <v>-0.01217145881107775</v>
+        <v>0.001612253123740536</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
-        <v>43455</v>
+        <v>43456</v>
       </c>
       <c r="B1015" t="n">
-        <v>0.001612253123740536</v>
+        <v>0.0581649371927909</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
-        <v>43456</v>
+        <v>43462</v>
       </c>
       <c r="B1016" t="n">
-        <v>0.0581649371927909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
-        <v>43462</v>
+        <v>43463</v>
       </c>
       <c r="B1017" t="n">
-        <v>0</v>
+        <v>-0.1180819602872835</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
-        <v>43463</v>
+        <v>43468</v>
       </c>
       <c r="B1018" t="n">
-        <v>-0.1180819602872835</v>
+        <v>0.05682605682605685</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
-        <v>43468</v>
+        <v>43469</v>
       </c>
       <c r="B1019" t="n">
-        <v>0.05682605682605685</v>
+        <v>0.01182127830094176</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
-        <v>43469</v>
+        <v>43470</v>
       </c>
       <c r="B1020" t="n">
-        <v>0.01182127830094176</v>
+        <v>-0.02797534376481744</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
-        <v>43470</v>
+        <v>43473</v>
       </c>
       <c r="B1021" t="n">
-        <v>-0.02797534376481744</v>
+        <v>-0.1666666666666667</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
-        <v>43473</v>
+        <v>43474</v>
       </c>
       <c r="B1022" t="n">
-        <v>-0.1666666666666667</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
-        <v>43474</v>
+        <v>43475</v>
       </c>
       <c r="B1023" t="n">
-        <v>0.05</v>
+        <v>-0.02467858726171127</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
-        <v>43475</v>
+        <v>43476</v>
       </c>
       <c r="B1024" t="n">
-        <v>-0.02467858726171127</v>
+        <v>0.04166666666666663</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
-        <v>43476</v>
+        <v>43477</v>
       </c>
       <c r="B1025" t="n">
-        <v>0.04166666666666663</v>
+        <v>0.01102941176470595</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
-        <v>43477</v>
+        <v>43480</v>
       </c>
       <c r="B1026" t="n">
-        <v>0.01102941176470595</v>
+        <v>-0.02090209020902096</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
-        <v>43480</v>
+        <v>43481</v>
       </c>
       <c r="B1027" t="n">
-        <v>-0.02090209020902096</v>
+        <v>0.02876106194690259</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="B1028" t="n">
-        <v>0.02876106194690259</v>
+        <v>0.06792717086834725</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
-        <v>43482</v>
+        <v>43483</v>
       </c>
       <c r="B1029" t="n">
-        <v>0.06792717086834725</v>
+        <v>0.02867325449538317</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
-        <v>43483</v>
+        <v>43484</v>
       </c>
       <c r="B1030" t="n">
-        <v>0.02867325449538317</v>
+        <v>0.02906661852319912</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
-        <v>43484</v>
+        <v>43487</v>
       </c>
       <c r="B1031" t="n">
-        <v>0.02906661852319912</v>
+        <v>-0.01587301587301587</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
-        <v>43487</v>
+        <v>43488</v>
       </c>
       <c r="B1032" t="n">
-        <v>-0.01587301587301587</v>
+        <v>-0.05101225359616407</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
-        <v>43488</v>
+        <v>43489</v>
       </c>
       <c r="B1033" t="n">
-        <v>-0.05101225359616407</v>
+        <v>-0.03846153846153843</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
-        <v>43489</v>
+        <v>43490</v>
       </c>
       <c r="B1034" t="n">
-        <v>-0.03846153846153843</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
-        <v>43490</v>
+        <v>43491</v>
       </c>
       <c r="B1035" t="n">
-        <v>0.05263157894736842</v>
+        <v>-0.009981666327154247</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
-        <v>43491</v>
+        <v>43494</v>
       </c>
       <c r="B1036" t="n">
-        <v>-0.009981666327154247</v>
+        <v>-0.003156670543279577</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
-        <v>43494</v>
+        <v>43495</v>
       </c>
       <c r="B1037" t="n">
-        <v>-0.003156670543279577</v>
+        <v>0.04578858111927642</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
-        <v>43495</v>
+        <v>43496</v>
       </c>
       <c r="B1038" t="n">
-        <v>0.04578858111927642</v>
+        <v>0.01102941176470582</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
-        <v>43496</v>
+        <v>43497</v>
       </c>
       <c r="B1039" t="n">
-        <v>0.01102941176470582</v>
+        <v>-0.008651766402307082</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
-        <v>43497</v>
+        <v>43498</v>
       </c>
       <c r="B1040" t="n">
-        <v>-0.008651766402307082</v>
+        <v>0.05100617652918913</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
-        <v>43498</v>
+        <v>43501</v>
       </c>
       <c r="B1041" t="n">
-        <v>0.05100617652918913</v>
+        <v>-0.01933444878230153</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
-        <v>43501</v>
+        <v>43502</v>
       </c>
       <c r="B1042" t="n">
-        <v>-0.01933444878230153</v>
+        <v>0.02299298519095868</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
-        <v>43502</v>
+        <v>43503</v>
       </c>
       <c r="B1043" t="n">
-        <v>0.02299298519095868</v>
+        <v>-0.06846240179573507</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
-        <v>43503</v>
+        <v>43504</v>
       </c>
       <c r="B1044" t="n">
-        <v>-0.06846240179573507</v>
+        <v>-0.05694377703027385</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
-        <v>43504</v>
+        <v>43505</v>
       </c>
       <c r="B1045" t="n">
-        <v>-0.05694377703027385</v>
+        <v>0.2481644640234949</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
-        <v>43505</v>
+        <v>43508</v>
       </c>
       <c r="B1046" t="n">
-        <v>0.2481644640234949</v>
+        <v>0.02695763799743256</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
-        <v>43508</v>
+        <v>43509</v>
       </c>
       <c r="B1047" t="n">
-        <v>0.02695763799743256</v>
+        <v>0.0191714411635081</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
-        <v>43509</v>
+        <v>43510</v>
       </c>
       <c r="B1048" t="n">
-        <v>0.0191714411635081</v>
+        <v>0.01344469342024845</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
-        <v>43510</v>
+        <v>43511</v>
       </c>
       <c r="B1049" t="n">
-        <v>0.01344469342024845</v>
+        <v>-0.0182696346073078</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
-        <v>43511</v>
+        <v>43512</v>
       </c>
       <c r="B1050" t="n">
-        <v>-0.0182696346073078</v>
+        <v>0.0007649158592555109</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
-        <v>43512</v>
+        <v>43515</v>
       </c>
       <c r="B1051" t="n">
-        <v>0.0007649158592555109</v>
+        <v>-0.01960784313725496</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
-        <v>43515</v>
+        <v>43516</v>
       </c>
       <c r="B1052" t="n">
-        <v>-0.01960784313725496</v>
+        <v>-0.02412280701754389</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
-        <v>43516</v>
+        <v>43517</v>
       </c>
       <c r="B1053" t="n">
-        <v>-0.02412280701754389</v>
+        <v>0.02359472588480229</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
-        <v>43517</v>
+        <v>43518</v>
       </c>
       <c r="B1054" t="n">
-        <v>0.02359472588480229</v>
+        <v>-0.00423728813559328</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
-        <v>43518</v>
+        <v>43519</v>
       </c>
       <c r="B1055" t="n">
-        <v>-0.00423728813559328</v>
+        <v>0.008968609865470838</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
-        <v>43519</v>
+        <v>43522</v>
       </c>
       <c r="B1056" t="n">
-        <v>0.008968609865470838</v>
+        <v>-0.006726457399103235</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
-        <v>43522</v>
+        <v>43523</v>
       </c>
       <c r="B1057" t="n">
-        <v>-0.006726457399103235</v>
+        <v>-0.02736937344492198</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
-        <v>43523</v>
+        <v>43524</v>
       </c>
       <c r="B1058" t="n">
-        <v>-0.02736937344492198</v>
+        <v>-0.02136115250869348</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
-        <v>43524</v>
+        <v>43525</v>
       </c>
       <c r="B1059" t="n">
-        <v>-0.02136115250869348</v>
+        <v>-0.02399127589967288</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
-        <v>43525</v>
+        <v>43526</v>
       </c>
       <c r="B1060" t="n">
-        <v>-0.02399127589967288</v>
+        <v>-0.03636363636363636</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
-        <v>43526</v>
+        <v>43529</v>
       </c>
       <c r="B1061" t="n">
-        <v>-0.03636363636363636</v>
+        <v>-0.1703892788768347</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
-        <v>43529</v>
+        <v>43530</v>
       </c>
       <c r="B1062" t="n">
-        <v>-0.1703892788768347</v>
+        <v>0.1072763876905377</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
-        <v>43530</v>
+        <v>43531</v>
       </c>
       <c r="B1063" t="n">
-        <v>0.1072763876905377</v>
+        <v>0.02515506547208823</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
-        <v>43531</v>
+        <v>43532</v>
       </c>
       <c r="B1064" t="n">
-        <v>0.02515506547208823</v>
+        <v>0.02311481621826447</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
-        <v>43532</v>
+        <v>43533</v>
       </c>
       <c r="B1065" t="n">
-        <v>0.02311481621826447</v>
+        <v>0.5037593984962405</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
-        <v>43533</v>
+        <v>43536</v>
       </c>
       <c r="B1066" t="n">
-        <v>0.5037593984962405</v>
+        <v>0.008472260180377019</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
-        <v>43536</v>
+        <v>43537</v>
       </c>
       <c r="B1067" t="n">
-        <v>0.008472260180377019</v>
+        <v>0.1911357340720221</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
-        <v>43537</v>
+        <v>43538</v>
       </c>
       <c r="B1068" t="n">
-        <v>0.1911357340720221</v>
+        <v>-0.1318377381684081</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
-        <v>43538</v>
+        <v>43539</v>
       </c>
       <c r="B1069" t="n">
-        <v>-0.1318377381684081</v>
+        <v>0.09083696945656482</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
-        <v>43539</v>
+        <v>43540</v>
       </c>
       <c r="B1070" t="n">
-        <v>0.09083696945656482</v>
+        <v>0.1759581881533102</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
-        <v>43540</v>
+        <v>43543</v>
       </c>
       <c r="B1071" t="n">
-        <v>0.1759581881533102</v>
+        <v>-0.005293339214821394</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
-        <v>43543</v>
+        <v>43544</v>
       </c>
       <c r="B1072" t="n">
-        <v>-0.005293339214821394</v>
+        <v>0.04216867469879518</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" s="2" t="n">
-        <v>43544</v>
+        <v>43545</v>
       </c>
       <c r="B1073" t="n">
-        <v>0.04216867469879518</v>
+        <v>0.01784367931641118</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" s="2" t="n">
-        <v>43545</v>
+        <v>43546</v>
       </c>
       <c r="B1074" t="n">
-        <v>0.01784367931641118</v>
+        <v>0.01059896475228</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
-        <v>43546</v>
+        <v>43547</v>
       </c>
       <c r="B1075" t="n">
-        <v>0.01059896475228</v>
+        <v>-0.05925301881493961</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
-        <v>43547</v>
+        <v>43550</v>
       </c>
       <c r="B1076" t="n">
-        <v>-0.05925301881493961</v>
+        <v>0.03424657534246575</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
-        <v>43550</v>
+        <v>43551</v>
       </c>
       <c r="B1077" t="n">
-        <v>0.03424657534246575</v>
+        <v>-0.01094799701418258</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
-        <v>43551</v>
+        <v>43552</v>
       </c>
       <c r="B1078" t="n">
-        <v>-0.01094799701418258</v>
+        <v>-0.001654064272211727</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
-        <v>43552</v>
+        <v>43553</v>
       </c>
       <c r="B1079" t="n">
-        <v>-0.001654064272211727</v>
+        <v>-0.02885821831869507</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" s="2" t="n">
-        <v>43553</v>
+        <v>43554</v>
       </c>
       <c r="B1080" t="n">
-        <v>-0.02885821831869507</v>
+        <v>-0.0225456621004566</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" s="2" t="n">
-        <v>43554</v>
+        <v>43557</v>
       </c>
       <c r="B1081" t="n">
-        <v>-0.0225456621004566</v>
+        <v>0.05612998522895121</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" s="2" t="n">
-        <v>43557</v>
+        <v>43558</v>
       </c>
       <c r="B1082" t="n">
-        <v>0.05612998522895121</v>
+        <v>-0.01964962121212134</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" s="2" t="n">
-        <v>43558</v>
+        <v>43559</v>
       </c>
       <c r="B1083" t="n">
-        <v>-0.01964962121212134</v>
+        <v>0.001903855306996627</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" s="2" t="n">
-        <v>43559</v>
+        <v>43560</v>
       </c>
       <c r="B1084" t="n">
-        <v>0.001903855306996627</v>
+        <v>-0.003074739829706778</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" s="2" t="n">
-        <v>43560</v>
+        <v>43561</v>
       </c>
       <c r="B1085" t="n">
-        <v>-0.003074739829706778</v>
+        <v>-0.04122097573702057</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" s="2" t="n">
-        <v>43561</v>
+        <v>43564</v>
       </c>
       <c r="B1086" t="n">
-        <v>-0.04122097573702057</v>
+        <v>0.0121457489878542</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" s="2" t="n">
-        <v>43564</v>
+        <v>43565</v>
       </c>
       <c r="B1087" t="n">
-        <v>0.0121457489878542</v>
+        <v>-0.01914992993928072</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" s="2" t="n">
-        <v>43565</v>
+        <v>43566</v>
       </c>
       <c r="B1088" t="n">
-        <v>-0.01914992993928072</v>
+        <v>0.01139919535091636</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" s="2" t="n">
-        <v>43566</v>
+        <v>43567</v>
       </c>
       <c r="B1089" t="n">
-        <v>0.01139919535091636</v>
+        <v>0.0111358574610245</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" s="2" t="n">
-        <v>43567</v>
+        <v>43568</v>
       </c>
       <c r="B1090" t="n">
-        <v>0.0111358574610245</v>
+        <v>-0.005311443746982106</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" s="2" t="n">
-        <v>43568</v>
+        <v>43571</v>
       </c>
       <c r="B1091" t="n">
-        <v>-0.005311443746982106</v>
+        <v>-0.008889956751561689</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" s="2" t="n">
-        <v>43571</v>
+        <v>43572</v>
       </c>
       <c r="B1092" t="n">
-        <v>-0.008889956751561689</v>
+        <v>0.0291595197255574</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" s="2" t="n">
-        <v>43572</v>
+        <v>43573</v>
       </c>
       <c r="B1093" t="n">
-        <v>0.0291595197255574</v>
+        <v>-0.06953966699314405</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" s="2" t="n">
-        <v>43573</v>
+        <v>43574</v>
       </c>
       <c r="B1094" t="n">
-        <v>-0.06953966699314405</v>
+        <v>-0.1060874704491727</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" s="2" t="n">
-        <v>43574</v>
+        <v>43579</v>
       </c>
       <c r="B1095" t="n">
-        <v>-0.1060874704491727</v>
+        <v>-0.02017291066282429</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" s="2" t="n">
-        <v>43579</v>
+        <v>43580</v>
       </c>
       <c r="B1096" t="n">
-        <v>-0.02017291066282429</v>
+        <v>-0.007886034088018374</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" s="2" t="n">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="B1097" t="n">
-        <v>-0.007886034088018374</v>
+        <v>-0.02618282039503906</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" s="2" t="n">
-        <v>43581</v>
+        <v>43582</v>
       </c>
       <c r="B1098" t="n">
-        <v>-0.02618282039503906</v>
+        <v>0.05501719287277279</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" s="2" t="n">
-        <v>43582</v>
+        <v>43585</v>
       </c>
       <c r="B1099" t="n">
-        <v>0.05501719287277279</v>
+        <v>0.008864007464427399</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" s="2" t="n">
-        <v>43585</v>
+        <v>43586</v>
       </c>
       <c r="B1100" t="n">
-        <v>0.008864007464427399</v>
+        <v>0.1189634864546526</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" s="2" t="n">
-        <v>43586</v>
+        <v>43588</v>
       </c>
       <c r="B1101" t="n">
-        <v>0.1189634864546526</v>
+        <v>-0.02334152334152341</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" s="2" t="n">
-        <v>43588</v>
+        <v>43589</v>
       </c>
       <c r="B1102" t="n">
-        <v>-0.02334152334152341</v>
+        <v>-0.06352822070361928</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" s="2" t="n">
-        <v>43589</v>
+        <v>43592</v>
       </c>
       <c r="B1103" t="n">
-        <v>-0.06352822070361928</v>
+        <v>-0.04893996433524864</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" s="2" t="n">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B1104" t="n">
-        <v>-0.04893996433524864</v>
+        <v>0.03876361793767422</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" s="2" t="n">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B1105" t="n">
-        <v>0.03876361793767422</v>
+        <v>-0.06077348066298342</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" s="2" t="n">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="B1106" t="n">
-        <v>-0.06077348066298342</v>
+        <v>0.0102701495869614</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" s="2" t="n">
-        <v>43595</v>
+        <v>43596</v>
       </c>
       <c r="B1107" t="n">
-        <v>0.0102701495869614</v>
+        <v>0.03695825578303644</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" s="2" t="n">
-        <v>43596</v>
+        <v>43599</v>
       </c>
       <c r="B1108" t="n">
-        <v>0.03695825578303644</v>
+        <v>0.01194830529139239</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" s="2" t="n">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="B1109" t="n">
-        <v>0.01194830529139239</v>
+        <v>0.05263157894736838</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" s="2" t="n">
-        <v>43600</v>
+        <v>43601</v>
       </c>
       <c r="B1110" t="n">
-        <v>0.05263157894736838</v>
+        <v>0.04455071734205898</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" s="2" t="n">
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="B1111" t="n">
-        <v>0.04455071734205898</v>
+        <v>-0.06286379511059377</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" s="2" t="n">
-        <v>43602</v>
+        <v>43603</v>
       </c>
       <c r="B1112" t="n">
-        <v>-0.06286379511059377</v>
+        <v>-0.0118311374025275</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" s="2" t="n">
-        <v>43603</v>
+        <v>43606</v>
       </c>
       <c r="B1113" t="n">
-        <v>-0.0118311374025275</v>
+        <v>-0.03557403557403555</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" s="2" t="n">
-        <v>43606</v>
+        <v>43607</v>
       </c>
       <c r="B1114" t="n">
-        <v>-0.03557403557403555</v>
+        <v>0.0039910202045397</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" s="2" t="n">
-        <v>43607</v>
+        <v>43608</v>
       </c>
       <c r="B1115" t="n">
-        <v>0.0039910202045397</v>
+        <v>0.05974920088517334</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" s="2" t="n">
-        <v>43608</v>
+        <v>43609</v>
       </c>
       <c r="B1116" t="n">
-        <v>0.05974920088517334</v>
+        <v>-0.005190311418685142</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" s="2" t="n">
-        <v>43609</v>
+        <v>43610</v>
       </c>
       <c r="B1117" t="n">
-        <v>-0.005190311418685142</v>
+        <v>-0.01172300981461286</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
-        <v>43610</v>
+        <v>43613</v>
       </c>
       <c r="B1118" t="n">
-        <v>-0.01172300981461286</v>
+        <v>-0.02954073390260792</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" s="2" t="n">
-        <v>43613</v>
+        <v>43614</v>
       </c>
       <c r="B1119" t="n">
-        <v>-0.02954073390260792</v>
+        <v>0.005747126436781657</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" s="2" t="n">
-        <v>43614</v>
+        <v>43615</v>
       </c>
       <c r="B1120" t="n">
-        <v>0.005747126436781657</v>
+        <v>0.3362336855189559</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" s="2" t="n">
-        <v>43615</v>
+        <v>43616</v>
       </c>
       <c r="B1121" t="n">
-        <v>0.3362336855189559</v>
+        <v>-0.004468025691147827</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
-        <v>43616</v>
+        <v>43617</v>
       </c>
       <c r="B1122" t="n">
-        <v>-0.004468025691147827</v>
+        <v>0.05807743658210943</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" s="2" t="n">
-        <v>43617</v>
+        <v>43620</v>
       </c>
       <c r="B1123" t="n">
-        <v>0.05807743658210943</v>
+        <v>0.04129263913824056</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" s="2" t="n">
-        <v>43620</v>
+        <v>43621</v>
       </c>
       <c r="B1124" t="n">
-        <v>0.04129263913824056</v>
+        <v>-0.05483785921434216</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" s="2" t="n">
-        <v>43621</v>
+        <v>43622</v>
       </c>
       <c r="B1125" t="n">
-        <v>-0.05483785921434216</v>
+        <v>-0.06524122807017532</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" s="2" t="n">
-        <v>43622</v>
+        <v>43623</v>
       </c>
       <c r="B1126" t="n">
-        <v>-0.06524122807017532</v>
+        <v>-0.06939643711778781</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" s="2" t="n">
-        <v>43623</v>
+        <v>43627</v>
       </c>
       <c r="B1127" t="n">
-        <v>-0.06939643711778781</v>
+        <v>-0.02619207521826733</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" s="2" t="n">
-        <v>43627</v>
+        <v>43628</v>
       </c>
       <c r="B1128" t="n">
-        <v>-0.02619207521826733</v>
+        <v>-0.01704545454545454</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" s="2" t="n">
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="B1129" t="n">
-        <v>-0.01704545454545454</v>
+        <v>-0.0002596728122565051</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" s="2" t="n">
-        <v>43629</v>
+        <v>43630</v>
       </c>
       <c r="B1130" t="n">
-        <v>-0.0002596728122565051</v>
+        <v>-0.02090341182123973</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" s="2" t="n">
-        <v>43630</v>
+        <v>43631</v>
       </c>
       <c r="B1131" t="n">
-        <v>-0.02090341182123973</v>
+        <v>-0.04349247874427725</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" s="2" t="n">
-        <v>43631</v>
+        <v>43634</v>
       </c>
       <c r="B1132" t="n">
-        <v>-0.04349247874427725</v>
+        <v>0.01111636707663195</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" s="2" t="n">
-        <v>43634</v>
+        <v>43635</v>
       </c>
       <c r="B1133" t="n">
-        <v>0.01111636707663195</v>
+        <v>-0.01092233009708745</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" s="2" t="n">
-        <v>43635</v>
+        <v>43636</v>
       </c>
       <c r="B1134" t="n">
-        <v>-0.01092233009708745</v>
+        <v>0.02363286617202526</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" s="2" t="n">
-        <v>43636</v>
+        <v>43637</v>
       </c>
       <c r="B1135" t="n">
-        <v>0.02363286617202526</v>
+        <v>-0.004910829671749748</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" s="2" t="n">
-        <v>43637</v>
+        <v>43638</v>
       </c>
       <c r="B1136" t="n">
-        <v>-0.004910829671749748</v>
+        <v>0.05912108757508697</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" s="2" t="n">
-        <v>43638</v>
+        <v>43641</v>
       </c>
       <c r="B1137" t="n">
-        <v>0.05912108757508697</v>
+        <v>-0.03751233958539001</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" s="2" t="n">
-        <v>43641</v>
+        <v>43642</v>
       </c>
       <c r="B1138" t="n">
-        <v>-0.03751233958539001</v>
+        <v>-0.01452282157676354</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" s="2" t="n">
-        <v>43642</v>
+        <v>43643</v>
       </c>
       <c r="B1139" t="n">
-        <v>-0.01452282157676354</v>
+        <v>-0.006202424584155593</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" s="2" t="n">
-        <v>43643</v>
+        <v>43644</v>
       </c>
       <c r="B1140" t="n">
-        <v>-0.006202424584155593</v>
+        <v>-0.05638665132336024</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" s="2" t="n">
-        <v>43644</v>
+        <v>43645</v>
       </c>
       <c r="B1141" t="n">
-        <v>-0.05638665132336024</v>
+        <v>0.009022556390977357</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" s="2" t="n">
-        <v>43645</v>
+        <v>43648</v>
       </c>
       <c r="B1142" t="n">
-        <v>0.009022556390977357</v>
+        <v>0.005997001499250247</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
-        <v>43648</v>
+        <v>43649</v>
       </c>
       <c r="B1143" t="n">
-        <v>0.005997001499250247</v>
+        <v>0.07184073860357768</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" s="2" t="n">
-        <v>43649</v>
+        <v>43650</v>
       </c>
       <c r="B1144" t="n">
-        <v>0.07184073860357768</v>
+        <v>0.02266038846380233</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
-        <v>43650</v>
+        <v>43651</v>
       </c>
       <c r="B1145" t="n">
-        <v>0.02266038846380233</v>
+        <v>-0.007373794668179184</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
-        <v>43651</v>
+        <v>43652</v>
       </c>
       <c r="B1146" t="n">
-        <v>-0.007373794668179184</v>
+        <v>-0.05913978494623661</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
-        <v>43652</v>
+        <v>43655</v>
       </c>
       <c r="B1147" t="n">
-        <v>-0.05913978494623661</v>
+        <v>0.01631452259962555</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
-        <v>43655</v>
+        <v>43656</v>
       </c>
       <c r="B1148" t="n">
-        <v>0.01631452259962555</v>
+        <v>0.03086568603809986</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
-        <v>43656</v>
+        <v>43657</v>
       </c>
       <c r="B1149" t="n">
-        <v>0.03086568603809986</v>
+        <v>0.01829666739272497</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
-        <v>43657</v>
+        <v>43658</v>
       </c>
       <c r="B1150" t="n">
-        <v>0.01829666739272497</v>
+        <v>-0.03846153846153851</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
-        <v>43658</v>
+        <v>43659</v>
       </c>
       <c r="B1151" t="n">
-        <v>-0.03846153846153851</v>
+        <v>-0.01584317937701405</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
-        <v>43659</v>
+        <v>43662</v>
       </c>
       <c r="B1152" t="n">
-        <v>-0.01584317937701405</v>
+        <v>0.03170902308230356</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
-        <v>43662</v>
+        <v>43663</v>
       </c>
       <c r="B1153" t="n">
-        <v>0.03170902308230356</v>
+        <v>0.04075850043591973</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
-        <v>43663</v>
+        <v>43664</v>
       </c>
       <c r="B1154" t="n">
-        <v>0.04075850043591973</v>
+        <v>0.01866605964033691</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
-        <v>43664</v>
+        <v>43665</v>
       </c>
       <c r="B1155" t="n">
-        <v>0.01866605964033691</v>
+        <v>0.002008480249944126</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
-        <v>43665</v>
+        <v>43666</v>
       </c>
       <c r="B1156" t="n">
-        <v>0.002008480249944126</v>
+        <v>0.04730692504987166</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
-        <v>43666</v>
+        <v>43669</v>
       </c>
       <c r="B1157" t="n">
-        <v>0.04730692504987166</v>
+        <v>-0.01287553648068672</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
-        <v>43669</v>
+        <v>43670</v>
       </c>
       <c r="B1158" t="n">
-        <v>-0.01287553648068672</v>
+        <v>-0.06200631911532387</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
-        <v>43670</v>
+        <v>43671</v>
       </c>
       <c r="B1159" t="n">
-        <v>-0.06200631911532387</v>
+        <v>0.03523790563408328</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
-        <v>43671</v>
+        <v>43672</v>
       </c>
       <c r="B1160" t="n">
-        <v>0.03523790563408328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
-        <v>43672</v>
+        <v>43673</v>
       </c>
       <c r="B1161" t="n">
-        <v>0</v>
+        <v>-0.01825221238938044</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
-        <v>43673</v>
+        <v>43676</v>
       </c>
       <c r="B1162" t="n">
-        <v>-0.01825221238938044</v>
+        <v>-0.006287895800583901</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
-        <v>43676</v>
+        <v>43677</v>
       </c>
       <c r="B1163" t="n">
-        <v>-0.006287895800583901</v>
+        <v>-0.1231689704972148</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
-        <v>43677</v>
+        <v>43678</v>
       </c>
       <c r="B1164" t="n">
-        <v>-0.1231689704972148</v>
+        <v>0.01880877742946716</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
-        <v>43678</v>
+        <v>43679</v>
       </c>
       <c r="B1165" t="n">
-        <v>0.01880877742946716</v>
+        <v>0.001144164759725335</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
-        <v>43679</v>
+        <v>43680</v>
       </c>
       <c r="B1166" t="n">
-        <v>0.001144164759725335</v>
+        <v>0.03794335991201547</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
-        <v>43680</v>
+        <v>43683</v>
       </c>
       <c r="B1167" t="n">
-        <v>0.03794335991201547</v>
+        <v>0.01046124583927717</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
-        <v>43683</v>
+        <v>43684</v>
       </c>
       <c r="B1168" t="n">
-        <v>0.01046124583927717</v>
+        <v>0.04110594568142892</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
-        <v>43684</v>
+        <v>43685</v>
       </c>
       <c r="B1169" t="n">
-        <v>0.04110594568142892</v>
+        <v>0.03686635944700464</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
-        <v>43685</v>
+        <v>43686</v>
       </c>
       <c r="B1170" t="n">
-        <v>0.03686635944700464</v>
+        <v>0.01576634789351252</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
-        <v>43686</v>
+        <v>43687</v>
       </c>
       <c r="B1171" t="n">
-        <v>0.01576634789351252</v>
+        <v>-0.7909967845659164</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
-        <v>43687</v>
+        <v>43690</v>
       </c>
       <c r="B1172" t="n">
-        <v>-0.7909967845659164</v>
+        <v>0.01866456361724503</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
-        <v>43690</v>
+        <v>43691</v>
       </c>
       <c r="B1173" t="n">
-        <v>0.01866456361724503</v>
+        <v>0.08331183905081239</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
-        <v>43691</v>
+        <v>43692</v>
       </c>
       <c r="B1174" t="n">
-        <v>0.08331183905081239</v>
+        <v>0.05737704918032787</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
-        <v>43692</v>
+        <v>43693</v>
       </c>
       <c r="B1175" t="n">
-        <v>0.05737704918032787</v>
+        <v>-0.01092743065284395</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
-        <v>43693</v>
+        <v>43694</v>
       </c>
       <c r="B1176" t="n">
-        <v>-0.01092743065284395</v>
+        <v>-0.008390541571319561</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
-        <v>43694</v>
+        <v>43697</v>
       </c>
       <c r="B1177" t="n">
-        <v>-0.008390541571319561</v>
+        <v>0.06783919597989957</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
-        <v>43697</v>
+        <v>43698</v>
       </c>
       <c r="B1178" t="n">
-        <v>0.06783919597989957</v>
+        <v>-0.0283109404990403</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
-        <v>43698</v>
+        <v>43699</v>
       </c>
       <c r="B1179" t="n">
-        <v>-0.0283109404990403</v>
+        <v>0.06031396309556589</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
-        <v>43699</v>
+        <v>43700</v>
       </c>
       <c r="B1180" t="n">
-        <v>0.06031396309556589</v>
+        <v>0.02893890675241153</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
-        <v>43700</v>
+        <v>43701</v>
       </c>
       <c r="B1181" t="n">
-        <v>0.02893890675241153</v>
+        <v>-0.002787240631774429</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
-        <v>43701</v>
+        <v>43704</v>
       </c>
       <c r="B1182" t="n">
-        <v>-0.002787240631774429</v>
+        <v>-0.04136148211977599</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
-        <v>43704</v>
+        <v>43705</v>
       </c>
       <c r="B1183" t="n">
-        <v>-0.04136148211977599</v>
+        <v>-0.07534920322644105</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
-        <v>43705</v>
+        <v>43706</v>
       </c>
       <c r="B1184" t="n">
-        <v>-0.07534920322644105</v>
+        <v>0.06203641267700602</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" s="2" t="n">
-        <v>43706</v>
+        <v>43707</v>
       </c>
       <c r="B1185" t="n">
-        <v>0.06203641267700602</v>
+        <v>0.01596516690856305</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" s="2" t="n">
-        <v>43707</v>
+        <v>43708</v>
       </c>
       <c r="B1186" t="n">
-        <v>0.01596516690856305</v>
+        <v>0.03980986333927521</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" s="2" t="n">
-        <v>43708</v>
+        <v>43711</v>
       </c>
       <c r="B1187" t="n">
-        <v>0.03980986333927521</v>
+        <v>0.05932203389830513</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" s="2" t="n">
-        <v>43711</v>
+        <v>43712</v>
       </c>
       <c r="B1188" t="n">
-        <v>0.05932203389830513</v>
+        <v>0.0364598647456631</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" s="2" t="n">
-        <v>43712</v>
+        <v>43713</v>
       </c>
       <c r="B1189" t="n">
-        <v>0.0364598647456631</v>
+        <v>-0.03846153846153843</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
-        <v>43713</v>
+        <v>43714</v>
       </c>
       <c r="B1190" t="n">
-        <v>-0.03846153846153843</v>
+        <v>0.04006163328197217</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" s="2" t="n">
-        <v>43714</v>
+        <v>43715</v>
       </c>
       <c r="B1191" t="n">
-        <v>0.04006163328197217</v>
+        <v>-0.06649972175848638</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" s="2" t="n">
-        <v>43715</v>
+        <v>43718</v>
       </c>
       <c r="B1192" t="n">
-        <v>-0.06649972175848638</v>
+        <v>0.004888647474198797</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" s="2" t="n">
-        <v>43718</v>
+        <v>43719</v>
       </c>
       <c r="B1193" t="n">
-        <v>0.004888647474198797</v>
+        <v>0.02858826996758028</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" s="2" t="n">
-        <v>43719</v>
+        <v>43720</v>
       </c>
       <c r="B1194" t="n">
-        <v>0.02858826996758028</v>
+        <v>0.01244044467972469</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
-        <v>43720</v>
+        <v>43721</v>
       </c>
       <c r="B1195" t="n">
-        <v>0.01244044467972469</v>
+        <v>-0.06458226550486937</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
-        <v>43721</v>
+        <v>43722</v>
       </c>
       <c r="B1196" t="n">
-        <v>-0.06458226550486937</v>
+        <v>0.00828729281767948</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" s="2" t="n">
-        <v>43722</v>
+        <v>43725</v>
       </c>
       <c r="B1197" t="n">
-        <v>0.00828729281767948</v>
+        <v>0.04812518452908186</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" s="2" t="n">
-        <v>43725</v>
+        <v>43726</v>
       </c>
       <c r="B1198" t="n">
-        <v>0.04812518452908186</v>
+        <v>0.01425438596491237</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" s="2" t="n">
-        <v>43726</v>
+        <v>43727</v>
       </c>
       <c r="B1199" t="n">
-        <v>0.01425438596491237</v>
+        <v>0.03357697578803104</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" s="2" t="n">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="B1200" t="n">
-        <v>0.03357697578803104</v>
+        <v>0.04800936768149876</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" s="2" t="n">
-        <v>43728</v>
+        <v>43729</v>
       </c>
       <c r="B1201" t="n">
-        <v>0.04800936768149876</v>
+        <v>-0.03318903318903315</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" s="2" t="n">
-        <v>43729</v>
+        <v>43732</v>
       </c>
       <c r="B1202" t="n">
-        <v>-0.03318903318903315</v>
+        <v>-0.04636459430979985</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
-        <v>43732</v>
+        <v>43733</v>
       </c>
       <c r="B1203" t="n">
-        <v>-0.04636459430979985</v>
+        <v>0.005562687205819383</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
-        <v>43733</v>
+        <v>43734</v>
       </c>
       <c r="B1204" t="n">
-        <v>0.005562687205819383</v>
+        <v>0.01034399807553523</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
-        <v>43734</v>
+        <v>43735</v>
       </c>
       <c r="B1205" t="n">
-        <v>0.01034399807553523</v>
+        <v>-0.01795005202913626</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" s="2" t="n">
-        <v>43735</v>
+        <v>43736</v>
       </c>
       <c r="B1206" t="n">
-        <v>-0.01795005202913626</v>
+        <v>-0.1493775933609959</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
-        <v>43736</v>
+        <v>43739</v>
       </c>
       <c r="B1207" t="n">
-        <v>-0.1493775933609959</v>
+        <v>-0.0658049353701527</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" s="2" t="n">
-        <v>43739</v>
+        <v>43740</v>
       </c>
       <c r="B1208" t="n">
-        <v>-0.0658049353701527</v>
+        <v>0.02790014684287814</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
-        <v>43740</v>
+        <v>43741</v>
       </c>
       <c r="B1209" t="n">
-        <v>0.02790014684287814</v>
+        <v>-0.02919890192163718</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" s="2" t="n">
-        <v>43741</v>
+        <v>43742</v>
       </c>
       <c r="B1210" t="n">
-        <v>-0.02919890192163718</v>
+        <v>-0.001831501831501792</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" s="2" t="n">
-        <v>43742</v>
+        <v>43743</v>
       </c>
       <c r="B1211" t="n">
-        <v>-0.001831501831501792</v>
+        <v>-0.03361344537815131</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" s="2" t="n">
-        <v>43743</v>
+        <v>43746</v>
       </c>
       <c r="B1212" t="n">
-        <v>-0.03361344537815131</v>
+        <v>0.03270223752151465</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" s="2" t="n">
-        <v>43746</v>
+        <v>43747</v>
       </c>
       <c r="B1213" t="n">
-        <v>0.03270223752151465</v>
+        <v>-0.03409090909090917</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" s="2" t="n">
-        <v>43747</v>
+        <v>43748</v>
       </c>
       <c r="B1214" t="n">
-        <v>-0.03409090909090917</v>
+        <v>0.03250164149704525</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
-        <v>43748</v>
+        <v>43749</v>
       </c>
       <c r="B1215" t="n">
-        <v>0.03250164149704525</v>
+        <v>-0.008471313053523253</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" s="2" t="n">
-        <v>43749</v>
+        <v>43750</v>
       </c>
       <c r="B1216" t="n">
-        <v>-0.008471313053523253</v>
+        <v>0.1403953370501774</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
-        <v>43750</v>
+        <v>43753</v>
       </c>
       <c r="B1217" t="n">
-        <v>0.1403953370501774</v>
+        <v>-0.03735961494384604</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" s="2" t="n">
-        <v>43753</v>
+        <v>43754</v>
       </c>
       <c r="B1218" t="n">
-        <v>-0.03735961494384604</v>
+        <v>-0.03066396350734923</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" s="2" t="n">
-        <v>43754</v>
+        <v>43755</v>
       </c>
       <c r="B1219" t="n">
-        <v>-0.03066396350734923</v>
+        <v>0.01096641535298142</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" s="2" t="n">
-        <v>43755</v>
+        <v>43756</v>
       </c>
       <c r="B1220" t="n">
-        <v>0.01096641535298142</v>
+        <v>0.04667609618104664</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" s="2" t="n">
-        <v>43756</v>
+        <v>43757</v>
       </c>
       <c r="B1221" t="n">
-        <v>0.04667609618104664</v>
+        <v>0.0123904502870957</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" s="2" t="n">
-        <v>43757</v>
+        <v>43760</v>
       </c>
       <c r="B1222" t="n">
-        <v>0.0123904502870957</v>
+        <v>-0.001708306641042031</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" s="2" t="n">
-        <v>43760</v>
+        <v>43761</v>
       </c>
       <c r="B1223" t="n">
-        <v>-0.001708306641042031</v>
+        <v>0.005284926470588163</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" s="2" t="n">
-        <v>43761</v>
+        <v>43762</v>
       </c>
       <c r="B1224" t="n">
-        <v>0.005284926470588163</v>
+        <v>0.02305102305102306</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" s="2" t="n">
-        <v>43762</v>
+        <v>43763</v>
       </c>
       <c r="B1225" t="n">
-        <v>0.02305102305102306</v>
+        <v>-0.0168928274716145</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" s="2" t="n">
-        <v>43763</v>
+        <v>43764</v>
       </c>
       <c r="B1226" t="n">
-        <v>-0.0168928274716145</v>
+        <v>0.0514596734289955</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" s="2" t="n">
-        <v>43764</v>
+        <v>43767</v>
       </c>
       <c r="B1227" t="n">
-        <v>0.0514596734289955</v>
+        <v>0.008106422781126596</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" s="2" t="n">
-        <v>43767</v>
+        <v>43768</v>
       </c>
       <c r="B1228" t="n">
-        <v>0.008106422781126596</v>
+        <v>0.02040816326530605</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" s="2" t="n">
-        <v>43768</v>
+        <v>43769</v>
       </c>
       <c r="B1229" t="n">
-        <v>0.02040816326530605</v>
+        <v>-0.008913910391742963</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" s="2" t="n">
-        <v>43769</v>
+        <v>43770</v>
       </c>
       <c r="B1230" t="n">
-        <v>-0.008913910391742963</v>
+        <v>-0.01611403780601187</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" s="2" t="n">
-        <v>43770</v>
+        <v>43771</v>
       </c>
       <c r="B1231" t="n">
-        <v>-0.01611403780601187</v>
+        <v>0.01892285298398834</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" s="2" t="n">
-        <v>43771</v>
+        <v>43774</v>
       </c>
       <c r="B1232" t="n">
-        <v>0.01892285298398834</v>
+        <v>0.01873536299765801</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" s="2" t="n">
-        <v>43774</v>
+        <v>43775</v>
       </c>
       <c r="B1233" t="n">
-        <v>0.01873536299765801</v>
+        <v>-0.05387140374589688</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" s="2" t="n">
-        <v>43775</v>
+        <v>43776</v>
       </c>
       <c r="B1234" t="n">
-        <v>-0.05387140374589688</v>
+        <v>0.006554307116104895</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" s="2" t="n">
-        <v>43776</v>
+        <v>43777</v>
       </c>
       <c r="B1235" t="n">
-        <v>0.006554307116104895</v>
+        <v>-0.004668930390492336</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" s="2" t="n">
-        <v>43777</v>
+        <v>43778</v>
       </c>
       <c r="B1236" t="n">
-        <v>-0.004668930390492336</v>
+        <v>-0.04533461261693453</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" s="2" t="n">
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="B1237" t="n">
-        <v>-0.04533461261693453</v>
+        <v>-0.02251184834123229</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
-        <v>43781</v>
+        <v>43782</v>
       </c>
       <c r="B1238" t="n">
-        <v>-0.02251184834123229</v>
+        <v>0.01954120645709434</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" s="2" t="n">
-        <v>43782</v>
+        <v>43783</v>
       </c>
       <c r="B1239" t="n">
-        <v>0.01954120645709434</v>
+        <v>0.05361871138570167</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" s="2" t="n">
-        <v>43783</v>
+        <v>43784</v>
       </c>
       <c r="B1240" t="n">
-        <v>0.05361871138570167</v>
+        <v>0.01583113456464384</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" s="2" t="n">
-        <v>43784</v>
+        <v>43785</v>
       </c>
       <c r="B1241" t="n">
-        <v>0.01583113456464384</v>
+        <v>0.03149606299212587</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" s="2" t="n">
-        <v>43785</v>
+        <v>43788</v>
       </c>
       <c r="B1242" t="n">
-        <v>0.03149606299212587</v>
+        <v>-0.08044740804474085</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" s="2" t="n">
-        <v>43788</v>
+        <v>43789</v>
       </c>
       <c r="B1243" t="n">
-        <v>-0.08044740804474085</v>
+        <v>0.06572769953051644</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" s="2" t="n">
-        <v>43789</v>
+        <v>43790</v>
       </c>
       <c r="B1244" t="n">
-        <v>0.06572769953051644</v>
+        <v>0.01816729886204824</v>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" s="2" t="n">
-        <v>43790</v>
+        <v>43791</v>
       </c>
       <c r="B1245" t="n">
-        <v>0.01816729886204824</v>
+        <v>0.01537402478201014</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" s="2" t="n">
-        <v>43791</v>
+        <v>43792</v>
       </c>
       <c r="B1246" t="n">
-        <v>0.01537402478201014</v>
+        <v>-0.002616088947024143</v>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" s="2" t="n">
-        <v>43792</v>
+        <v>43795</v>
       </c>
       <c r="B1247" t="n">
-        <v>-0.002616088947024143</v>
+        <v>-0.01288006756756756</v>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" s="2" t="n">
-        <v>43795</v>
+        <v>43796</v>
       </c>
       <c r="B1248" t="n">
-        <v>-0.01288006756756756</v>
+        <v>-0.04430379746835443</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" s="2" t="n">
-        <v>43796</v>
+        <v>43797</v>
       </c>
       <c r="B1249" t="n">
-        <v>-0.04430379746835443</v>
+        <v>-0.04066907182682842</v>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" s="2" t="n">
-        <v>43797</v>
+        <v>43798</v>
       </c>
       <c r="B1250" t="n">
-        <v>-0.04066907182682842</v>
+        <v>-0.01447105788423149</v>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" s="2" t="n">
-        <v>43798</v>
+        <v>43799</v>
       </c>
       <c r="B1251" t="n">
-        <v>-0.01447105788423149</v>
+        <v>0.005712925493930064</v>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" s="2" t="n">
-        <v>43799</v>
+        <v>43802</v>
       </c>
       <c r="B1252" t="n">
-        <v>0.005712925493930064</v>
+        <v>-0.03621495327102803</v>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" s="2" t="n">
-        <v>43802</v>
+        <v>43803</v>
       </c>
       <c r="B1253" t="n">
-        <v>-0.03621495327102803</v>
+        <v>0.02732582394659996</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" s="2" t="n">
-        <v>43803</v>
+        <v>43804</v>
       </c>
       <c r="B1254" t="n">
-        <v>0.02732582394659996</v>
+        <v>0.03419416547106647</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" s="2" t="n">
-        <v>43804</v>
+        <v>43805</v>
       </c>
       <c r="B1255" t="n">
-        <v>0.03419416547106647</v>
+        <v>-0.06752411575562706</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" s="2" t="n">
-        <v>43805</v>
+        <v>43806</v>
       </c>
       <c r="B1256" t="n">
-        <v>-0.06752411575562706</v>
+        <v>-0.07667603372139703</v>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" s="2" t="n">
-        <v>43806</v>
+        <v>43809</v>
       </c>
       <c r="B1257" t="n">
-        <v>-0.07667603372139703</v>
+        <v>0.02688573562359966</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" s="2" t="n">
-        <v>43809</v>
+        <v>43810</v>
       </c>
       <c r="B1258" t="n">
-        <v>0.02688573562359966</v>
+        <v>0.08210912906610711</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" s="2" t="n">
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="B1259" t="n">
-        <v>0.08210912906610711</v>
+        <v>-0.01949798296727919</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" s="2" t="n">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="B1260" t="n">
-        <v>-0.01949798296727919</v>
+        <v>-0.04188338352039422</v>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" s="2" t="n">
-        <v>43812</v>
+        <v>43813</v>
       </c>
       <c r="B1261" t="n">
-        <v>-0.04188338352039422</v>
+        <v>-0.02066293585880329</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" s="2" t="n">
-        <v>43813</v>
+        <v>43816</v>
       </c>
       <c r="B1262" t="n">
-        <v>-0.02066293585880329</v>
+        <v>0.05119825708061009</v>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" s="2" t="n">
-        <v>43816</v>
+        <v>43817</v>
       </c>
       <c r="B1263" t="n">
-        <v>0.05119825708061009</v>
+        <v>0.001243781094527292</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" s="2" t="n">
-        <v>43817</v>
+        <v>43818</v>
       </c>
       <c r="B1264" t="n">
-        <v>0.001243781094527292</v>
+        <v>-0.03318903318903315</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" s="2" t="n">
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="B1265" t="n">
-        <v>-0.03318903318903315</v>
+        <v>0.01666099965997955</v>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" s="2" t="n">
-        <v>43819</v>
+        <v>43820</v>
       </c>
       <c r="B1266" t="n">
-        <v>0.01666099965997955</v>
+        <v>0.04055496264674495</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" s="2" t="n">
-        <v>43820</v>
+        <v>43823</v>
       </c>
       <c r="B1267" t="n">
-        <v>0.04055496264674495</v>
+        <v>0.2183235867446394</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" s="2" t="n">
-        <v>43823</v>
+        <v>43827</v>
       </c>
       <c r="B1268" t="n">
-        <v>0.2183235867446394</v>
-      </c>
-    </row>
-    <row r="1269">
-      <c r="A1269" s="2" t="n">
-        <v>43827</v>
-      </c>
-      <c r="B1269" t="n">
         <v>0.03528725575969673</v>
       </c>
     </row>
